--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail9 Features.xlsx
@@ -2208,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2219,29 +2219,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2262,115 +2260,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2387,72 +2375,66 @@
         <v>3.440941088134941e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.098239299711852</v>
+        <v>2.09282580223803e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.742188925922964</v>
+        <v>7.721616363327754e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.09282580223803e-06</v>
+        <v>0.09245225230371548</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.721616363327754e-06</v>
+        <v>0.2832014470409147</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09245225230371548</v>
+        <v>0.08865181977309412</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2832014470409147</v>
+        <v>1.506148872289177</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08865181977309412</v>
+        <v>1.543022707673643</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.405300418347362</v>
+        <v>3.646328080543491</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.543022707673643</v>
+        <v>5.426550659273567e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.646328080543491</v>
+        <v>11880976.50012413</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.426550659273567e-14</v>
+        <v>8.715573944352565e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11880976.50012413</v>
+        <v>7.659988814315227</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.715573944352565e-06</v>
+        <v>8.895978218377562e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.659988814315227</v>
+        <v>6.066356824518382</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>8.895978218377562e-05</v>
+        <v>1.78678332505749</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.066356824518382</v>
+        <v>0.003273780932700704</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.78678332505749</v>
+        <v>3.549551818811059</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003273780932700704</v>
+        <v>0.936835100049593</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.549551818811059</v>
+        <v>1.864966691547462</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.936835100049593</v>
+        <v>24</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.864966691547462</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2474448592316889</v>
       </c>
     </row>
@@ -2467,72 +2449,66 @@
         <v>2.850408939646553e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.580464601573891</v>
+        <v>1.692370263444601e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.393897118033554</v>
+        <v>7.74950480972025e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.692370263444601e-06</v>
+        <v>0.08462352732067396</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.74950480972025e-06</v>
+        <v>0.2999403581304797</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08462352732067396</v>
+        <v>0.09701052280349867</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2999403581304797</v>
+        <v>1.514813914947105</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09701052280349867</v>
+        <v>1.663511430197499</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.413921284503938</v>
+        <v>3.714174017180913</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.663511430197499</v>
+        <v>5.230110331600716e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.714174017180913</v>
+        <v>12181322.7716247</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.230110331600716e-14</v>
+        <v>8.521430851262576e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>12181322.7716247</v>
+        <v>7.760679574729471</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.521430851262576e-06</v>
+        <v>8.825493832611241e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.760679574729471</v>
+        <v>7.443493087626422</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>8.825493832611241e-05</v>
+        <v>2.08599913391234</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.443493087626422</v>
+        <v>0.004889816870612749</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.08599913391234</v>
+        <v>3.587460874605733</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004889816870612749</v>
+        <v>0.9366343778294306</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.587460874605733</v>
+        <v>1.875600088695794</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9366343778294306</v>
+        <v>24</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.875600088695794</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2705267492757408</v>
       </c>
     </row>
@@ -2547,72 +2523,66 @@
         <v>2.433866571396448e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.047842734648218</v>
+        <v>1.343863862774785e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.9921667459349504</v>
+        <v>7.770101753312695e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.343863862774785e-06</v>
+        <v>0.07093441099481304</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.770101753312695e-06</v>
+        <v>0.3082420989746684</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07093441099481304</v>
+        <v>0.09992785548627547</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3082420989746684</v>
+        <v>1.528552829332202</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09992785548627547</v>
+        <v>1.577792654371104</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.428836287757326</v>
+        <v>3.750002557116601</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.577792654371104</v>
+        <v>5.130647976609783e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.750002557116601</v>
+        <v>12572116.75495001</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.130647976609783e-14</v>
+        <v>8.360224841166582e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>12572116.75495001</v>
+        <v>8.109405720260387</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.360224841166582e-06</v>
+        <v>7.72853816232643e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.109405720260387</v>
+        <v>7.211195544969449</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.72853816232643e-05</v>
+        <v>1.653096003269906</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.211195544969449</v>
+        <v>0.004018943498619708</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.653096003269906</v>
+        <v>3.611175652298308</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004018943498619708</v>
+        <v>0.9366649658232873</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.611175652298308</v>
+        <v>1.853105690980021</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9366649658232873</v>
+        <v>28</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.853105690980021</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.287009277260218</v>
       </c>
     </row>
@@ -2627,72 +2597,66 @@
         <v>2.174113122529222e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.6885950691399644</v>
+        <v>1.047150315275484e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.4561921513397698</v>
+        <v>7.784342428861781e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.047150315275484e-06</v>
+        <v>0.05248937707162268</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.784342428861781e-06</v>
+        <v>0.3041635233137298</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05248937707162268</v>
+        <v>0.09516513737235392</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3041635233137298</v>
+        <v>1.536719135869024</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09516513737235392</v>
+        <v>1.52253739471092</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.440704392669176</v>
+        <v>3.94750117859384</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.52253739471092</v>
+        <v>4.630104670056311e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.94750117859384</v>
+        <v>14165840.70726021</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.630104670056311e-14</v>
+        <v>7.474359697280232e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>14165840.70726021</v>
+        <v>9.291279330776328</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.474359697280232e-06</v>
+        <v>8.973223219756693e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9.291279330776328</v>
+        <v>9.485250910325409</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.973223219756693e-05</v>
+        <v>1.315399096106558</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.485250910325409</v>
+        <v>0.008073207569741253</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.315399096106558</v>
+        <v>3.474362103788318</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008073207569741253</v>
+        <v>0.9369605135268765</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.474362103788318</v>
+        <v>1.841101573572142</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9369605135268765</v>
+        <v>28</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.841101573572142</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2654975619781759</v>
       </c>
     </row>
@@ -2707,72 +2671,66 @@
         <v>2.03922107977679e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.5700672903572694</v>
+        <v>7.965734966343605e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7963383068498171</v>
+        <v>7.7932297470747e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.965734966343605e-07</v>
+        <v>0.03212357846729207</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.7932297470747e-06</v>
+        <v>0.2875362388425145</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03212357846729207</v>
+        <v>0.08362503478856524</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2875362388425145</v>
+        <v>1.535361563156435</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08362503478856524</v>
+        <v>1.486947892572168</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.443377766856016</v>
+        <v>4.416384287834767</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.486947892572168</v>
+        <v>3.616044253574807e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.416384287834767</v>
+        <v>18028958.12131988</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.616044253574807e-14</v>
+        <v>5.858326806954746e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>18028958.12131988</v>
+        <v>11.75371069009508</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.858326806954746e-06</v>
+        <v>0.0001108432945846238</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>11.75371069009508</v>
+        <v>10.71983556101751</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001108432945846238</v>
+        <v>1.23477964271582</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.71983556101751</v>
+        <v>0.01273754328139895</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.23477964271582</v>
+        <v>3.298554374255953</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01273754328139895</v>
+        <v>0.9355833760758245</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.298554374255953</v>
+        <v>1.878254827290397</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9355833760758245</v>
+        <v>28</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.878254827290397</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2484140603596975</v>
       </c>
     </row>
@@ -2787,72 +2745,66 @@
         <v>1.987608194118944e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.5809283611130578</v>
+        <v>7.13003072699301e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7103541354291907</v>
+        <v>7.797747592640427e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.13003072699301e-07</v>
+        <v>0.01349620423086079</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.797747592640427e-06</v>
+        <v>0.2642712644803877</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01349620423086079</v>
+        <v>0.06996456263005343</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2642712644803877</v>
+        <v>1.598080127992684</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06996456263005343</v>
+        <v>1.628616224404146</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.505038548686222</v>
+        <v>4.022612970272391</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.628616224404146</v>
+        <v>3.504453561803147e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.022612970272391</v>
+        <v>17828688.09352721</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.504453561803147e-14</v>
+        <v>6.13387900884787e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>17828688.09352721</v>
+        <v>11.13933035569429</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.13387900884787e-06</v>
+        <v>0.0001131060621248953</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>11.13933035569429</v>
+        <v>9.737233125871494</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001131060621248953</v>
+        <v>1.311750473866195</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.737233125871494</v>
+        <v>0.0107240052545155</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.311750473866195</v>
+        <v>3.424578521296284</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0107240052545155</v>
+        <v>0.9440832820880692</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.424578521296284</v>
+        <v>1.820039611708522</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9440832820880692</v>
+        <v>27</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.820039611708522</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2392843479994187</v>
       </c>
     </row>
@@ -3229,7 +3181,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.386203523923253</v>
+        <v>1.403614558740954</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.665626257692897</v>
@@ -3318,7 +3270,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.405396624758064</v>
+        <v>1.42853181941455</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.282283827282999</v>
@@ -3407,7 +3359,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.41540759069795</v>
+        <v>1.438542982675882</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.680911613199452</v>
@@ -3496,7 +3448,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.413793289559946</v>
+        <v>1.433481429382862</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.452294263769544</v>
@@ -3585,7 +3537,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.409710951705639</v>
+        <v>1.431668414853588</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40200371038174</v>
@@ -3674,7 +3626,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.441405286194094</v>
+        <v>1.461180902005919</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.404363930794122</v>
@@ -3763,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.458412739158416</v>
+        <v>1.472447831408609</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.333214639596285</v>
@@ -3852,7 +3804,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.463304550735504</v>
+        <v>1.480744369547022</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.543908724703715</v>
@@ -3941,7 +3893,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.45720597886622</v>
+        <v>1.471921902930815</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.571541352825272</v>
@@ -4030,7 +3982,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.443759195693577</v>
+        <v>1.454324649768835</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.618366737310239</v>
@@ -4119,7 +4071,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.405829064931635</v>
+        <v>1.416506498937315</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.586773967569117</v>
@@ -4208,7 +4160,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.401788329076188</v>
+        <v>1.408741094992823</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.52802163843084</v>
@@ -4297,7 +4249,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.413022988405704</v>
+        <v>1.418656107884763</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.544203312920584</v>
@@ -4386,7 +4338,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.422277368809881</v>
+        <v>1.423617416671578</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.632601816830607</v>
@@ -4475,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.431900696155141</v>
+        <v>1.435128320302234</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.577497829737432</v>
@@ -4564,7 +4516,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.442387303222725</v>
+        <v>1.447051858536406</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.275572876862469</v>
@@ -4653,7 +4605,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.440286652019731</v>
+        <v>1.440434888472698</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.604062202916553</v>
@@ -4742,7 +4694,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.423602777101731</v>
+        <v>1.427149804237634</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.517842811234352</v>
@@ -4831,7 +4783,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.451648007587829</v>
+        <v>1.453183724421856</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.482249054201292</v>
@@ -4920,7 +4872,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.438455837979118</v>
+        <v>1.443776424703562</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.657842734046955</v>
@@ -5009,7 +4961,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.418113697062304</v>
+        <v>1.425467997480511</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.598270911370594</v>
@@ -5098,7 +5050,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.420423483318265</v>
+        <v>1.423229143448118</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.601152884918472</v>
@@ -5187,7 +5139,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.388300674966782</v>
+        <v>1.388926246100883</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.668561433080537</v>
@@ -5276,7 +5228,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.392630246229556</v>
+        <v>1.396928728799658</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.684904547429819</v>
@@ -5365,7 +5317,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.401442994766811</v>
+        <v>1.403621603822581</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.621637142506227</v>
@@ -5454,7 +5406,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.427170575985484</v>
+        <v>1.429978558481859</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.651231633985232</v>
@@ -5543,7 +5495,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.414529113141672</v>
+        <v>1.420734348511881</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.606087088524847</v>
@@ -5632,7 +5584,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.419506196346438</v>
+        <v>1.423288362688111</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.647888597192495</v>
@@ -5721,7 +5673,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.394144355122046</v>
+        <v>1.398310116208904</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.581032052985042</v>
@@ -5810,7 +5762,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.420540440696255</v>
+        <v>1.42528865530547</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.728124901139375</v>
@@ -5899,7 +5851,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.421789015676617</v>
+        <v>1.425640983317249</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.516560193128961</v>
@@ -5988,7 +5940,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.433960896260831</v>
+        <v>1.439509157134232</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.517642322602094</v>
@@ -6077,7 +6029,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.44093343887871</v>
+        <v>1.445410450844915</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.743904451600176</v>
@@ -6166,7 +6118,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.431373882167172</v>
+        <v>1.438138537939527</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.495281361354463</v>
@@ -6255,7 +6207,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.474713158160055</v>
+        <v>1.48164548732433</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.587939644201349</v>
@@ -6344,7 +6296,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.50519840515966</v>
+        <v>1.521767815531246</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.985249015939995</v>
@@ -6433,7 +6385,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.511614778051654</v>
+        <v>1.536137774264664</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.589960163592476</v>
@@ -6522,7 +6474,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.555354787962266</v>
+        <v>1.577708012462353</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.598699758388456</v>
@@ -6611,7 +6563,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.544012276651296</v>
+        <v>1.566936218485025</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.010084424371391</v>
@@ -6700,7 +6652,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.538579941372122</v>
+        <v>1.565522828906448</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.054890376065004</v>
@@ -6789,7 +6741,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.541245185780716</v>
+        <v>1.569731491999485</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.070951955968155</v>
@@ -6878,7 +6830,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.5332841383201</v>
+        <v>1.55446550715105</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.948218219976899</v>
@@ -6967,7 +6919,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.515714331392933</v>
+        <v>1.546737510094193</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.802971553988945</v>
@@ -7056,7 +7008,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.530443403226538</v>
+        <v>1.56288594142911</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.054810313290891</v>
@@ -7145,7 +7097,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.535568805377748</v>
+        <v>1.567644340369052</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.877572392199916</v>
@@ -7234,7 +7186,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.533494418440099</v>
+        <v>1.565611381940837</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.996637236688852</v>
@@ -7323,7 +7275,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.522928530432647</v>
+        <v>1.553853073669634</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.018330898007209</v>
@@ -7412,7 +7364,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.529185884693293</v>
+        <v>1.559585632842056</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.671302224837365</v>
@@ -7501,7 +7453,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.54005615515278</v>
+        <v>1.572458365069046</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.994305220183488</v>
@@ -7590,7 +7542,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.517926665127305</v>
+        <v>1.547456044274351</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.754612820472651</v>
@@ -7679,7 +7631,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.479514604178273</v>
+        <v>1.504736543145403</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.861981367534236</v>
@@ -7965,7 +7917,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.377745758364957</v>
+        <v>1.387051277652979</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.693394739751135</v>
@@ -8054,7 +8006,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.389824715988387</v>
+        <v>1.403434965137301</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.401086510682655</v>
@@ -8143,7 +8095,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.403445447396222</v>
+        <v>1.415263452533897</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.634528807341167</v>
@@ -8232,7 +8184,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.399548239742602</v>
+        <v>1.403773096848289</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.554793921132906</v>
@@ -8321,7 +8273,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.401866136585506</v>
+        <v>1.405478844865008</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.267836752111038</v>
@@ -8410,7 +8362,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.416918189563273</v>
+        <v>1.420246382459464</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.507174088463889</v>
@@ -8499,7 +8451,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.424147833391938</v>
+        <v>1.420375863232772</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.260325425416294</v>
@@ -8588,7 +8540,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.437952446051485</v>
+        <v>1.43865102638894</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.403106606839534</v>
@@ -8677,7 +8629,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.442864723826015</v>
+        <v>1.444195314863181</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.600146605676575</v>
@@ -8766,7 +8718,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.440846905573264</v>
+        <v>1.437295788438509</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.685682558573321</v>
@@ -8855,7 +8807,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.417701009903884</v>
+        <v>1.417054643516434</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.601905328090638</v>
@@ -8944,7 +8896,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.422887637017568</v>
+        <v>1.427261975047935</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.69135841726039</v>
@@ -9033,7 +8985,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.437212496203476</v>
+        <v>1.439121097392221</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.515206702611188</v>
@@ -9122,7 +9074,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.442616691264236</v>
+        <v>1.444431966079972</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.490966748527592</v>
@@ -9211,7 +9163,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.450966909803843</v>
+        <v>1.451160120375798</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.567151822271074</v>
@@ -9300,7 +9252,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.462110383421155</v>
+        <v>1.458614890692545</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.176891715539455</v>
@@ -9389,7 +9341,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.461687769024496</v>
+        <v>1.454180729586735</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.489291618643773</v>
@@ -9478,7 +9430,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.450584030337156</v>
+        <v>1.44644024427558</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.569680242591039</v>
@@ -9567,7 +9519,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.494598582531241</v>
+        <v>1.493623118591785</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.583546878901552</v>
@@ -9656,7 +9608,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.480871288137861</v>
+        <v>1.485304653277551</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.623396571120758</v>
@@ -9745,7 +9697,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.469665348521443</v>
+        <v>1.479695591481446</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.529966652528696</v>
@@ -9834,7 +9786,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.47117416682678</v>
+        <v>1.475335235947328</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.550901454570176</v>
@@ -9923,7 +9875,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.45246717739315</v>
+        <v>1.457807089964286</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.528649564682755</v>
@@ -10012,7 +9964,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.457335045206652</v>
+        <v>1.466590229316949</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.492581869843667</v>
@@ -10101,7 +10053,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.459662177963824</v>
+        <v>1.466670567379698</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.618761006658288</v>
@@ -10190,7 +10142,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.479700538677664</v>
+        <v>1.489950169427877</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.62923380659444</v>
@@ -10279,7 +10231,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.475853109615528</v>
+        <v>1.484851294025017</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.623696957680977</v>
@@ -10368,7 +10320,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.465682462543008</v>
+        <v>1.472885520561188</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.640901276144772</v>
@@ -10457,7 +10409,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.451925117969306</v>
+        <v>1.455374891113965</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.605700918219775</v>
@@ -10546,7 +10498,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.465711101547454</v>
+        <v>1.473147243095962</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.754313242070712</v>
@@ -10635,7 +10587,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.472958189052901</v>
+        <v>1.482104607698135</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.706243975336351</v>
@@ -10724,7 +10676,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.480964484193596</v>
+        <v>1.496702020396937</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.680729559083908</v>
@@ -10813,7 +10765,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.47265355767829</v>
+        <v>1.48578225291801</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.732608721449728</v>
@@ -10902,7 +10854,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.447049248247987</v>
+        <v>1.452549639162658</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.728327963539993</v>
@@ -10991,7 +10943,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.479254733736343</v>
+        <v>1.482474687050777</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.506241664492368</v>
@@ -11080,7 +11032,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.469853604425916</v>
+        <v>1.470790335639094</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.56931642052762</v>
@@ -11169,7 +11121,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.473601060257558</v>
+        <v>1.475736402282184</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.442410699950984</v>
@@ -11258,7 +11210,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.487903737160104</v>
+        <v>1.48915434362837</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.617950316681517</v>
@@ -11347,7 +11299,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.484501881547196</v>
+        <v>1.485275325393425</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.728128811224902</v>
@@ -11436,7 +11388,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.486944156212136</v>
+        <v>1.488502725146493</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.70932892582499</v>
@@ -11525,7 +11477,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.490171833723619</v>
+        <v>1.489491458020802</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.630841828768348</v>
@@ -11614,7 +11566,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.489386036022213</v>
+        <v>1.48507532148591</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.494893247205715</v>
@@ -11703,7 +11655,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.49012432640358</v>
+        <v>1.49053806625384</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.659647342468968</v>
@@ -11792,7 +11744,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.504629409433388</v>
+        <v>1.506136472643786</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.739823144043061</v>
@@ -11881,7 +11833,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.505374539896174</v>
+        <v>1.504556095937281</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.634803395270342</v>
@@ -11970,7 +11922,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.499134279041857</v>
+        <v>1.496424288886792</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.618568292042252</v>
@@ -12059,7 +12011,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.489317542429499</v>
+        <v>1.485077830512614</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.661682424125138</v>
@@ -12148,7 +12100,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.509605285932049</v>
+        <v>1.503710002109037</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.555695096660511</v>
@@ -12237,7 +12189,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.536118279748862</v>
+        <v>1.538644959536171</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.544427664256063</v>
@@ -12326,7 +12278,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.531733734766992</v>
+        <v>1.527364722549192</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.59762489431641</v>
@@ -12415,7 +12367,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.524243475262879</v>
+        <v>1.525239097446153</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.599924877669589</v>
@@ -12701,7 +12653,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.741870299401219</v>
+        <v>1.736613475379886</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.999379281797394</v>
@@ -12790,7 +12742,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.752179039602049</v>
+        <v>1.744178803140258</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.082492597360133</v>
@@ -12879,7 +12831,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.760170018033656</v>
+        <v>1.752505421161085</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.15701257109913</v>
@@ -12968,7 +12920,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.752780324365293</v>
+        <v>1.743961508668983</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.0385549108575</v>
@@ -13057,7 +13009,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.745844077304114</v>
+        <v>1.740538342694697</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.882266641367119</v>
@@ -13146,7 +13098,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.753908962732653</v>
+        <v>1.742274501076226</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.142372954138959</v>
@@ -13235,7 +13187,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.759896956456354</v>
+        <v>1.747324410575202</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.022418847029714</v>
@@ -13324,7 +13276,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.764328162998011</v>
+        <v>1.755731239761313</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.105693803553468</v>
@@ -13413,7 +13365,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.765670723680491</v>
+        <v>1.739437420013008</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.013408608174652</v>
@@ -13502,7 +13454,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.760707279556738</v>
+        <v>1.731256294942433</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.013390066402633</v>
@@ -13591,7 +13543,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.745533049183888</v>
+        <v>1.713887364966624</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.167792609259684</v>
@@ -13680,7 +13632,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.74183459232538</v>
+        <v>1.710382032434172</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.072528656150487</v>
@@ -13769,7 +13721,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.741477366602591</v>
+        <v>1.709313235021167</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.835009428501868</v>
@@ -13858,7 +13810,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.746626566466847</v>
+        <v>1.715765622302077</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.00596036846451</v>
@@ -13947,7 +13899,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.77570694703496</v>
+        <v>1.739526538997834</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.514439662787039</v>
@@ -14036,7 +13988,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.7767794803304</v>
+        <v>1.737780146167692</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.002977518780539</v>
@@ -14125,7 +14077,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.764398491832158</v>
+        <v>1.723512678595793</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.036047454541399</v>
@@ -14214,7 +14166,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.755655309854153</v>
+        <v>1.718552433045341</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.187687883380483</v>
@@ -14303,7 +14255,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.76900240619608</v>
+        <v>1.722992012540868</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.181705078610096</v>
@@ -14392,7 +14344,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.768523553828723</v>
+        <v>1.72351099414316</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.058678163323495</v>
@@ -14481,7 +14433,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.748749745524228</v>
+        <v>1.705342563092428</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.95915016950507</v>
@@ -14570,7 +14522,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.743430583567579</v>
+        <v>1.695653223624632</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.800043329715879</v>
@@ -14659,7 +14611,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.72514913550682</v>
+        <v>1.678870442762662</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.61430424808059</v>
@@ -14748,7 +14700,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.706322047201346</v>
+        <v>1.678462004589365</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.474144280409967</v>
@@ -14837,7 +14789,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.70957009164255</v>
+        <v>1.681839117371296</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.698158045905177</v>
@@ -14926,7 +14878,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.721460847468356</v>
+        <v>1.69713461026243</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.814769836018231</v>
@@ -15015,7 +14967,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.725974922310376</v>
+        <v>1.702921299253856</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.727322528513889</v>
@@ -15104,7 +15056,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.71805852371696</v>
+        <v>1.692178333334118</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.335131389721629</v>
@@ -15193,7 +15145,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.717936736853972</v>
+        <v>1.696349176737297</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.275993224397394</v>
@@ -15282,7 +15234,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.723125145328099</v>
+        <v>1.700989579055906</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.540116623501501</v>
@@ -15371,7 +15323,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.724905292693431</v>
+        <v>1.69957901033401</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.392349093968111</v>
@@ -15460,7 +15412,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.740321090182022</v>
+        <v>1.718997543685062</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.296397710838684</v>
@@ -15549,7 +15501,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.73583705939682</v>
+        <v>1.707933120245185</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.239812921480717</v>
@@ -15638,7 +15590,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.73120034138491</v>
+        <v>1.702540826441942</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.377314916237475</v>
@@ -15727,7 +15679,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.753848297765794</v>
+        <v>1.722193677241383</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.628398095338162</v>
@@ -15816,7 +15768,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.765554004142735</v>
+        <v>1.738770870203515</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.128770552752054</v>
@@ -15905,7 +15857,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.778561652457875</v>
+        <v>1.752600111354784</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.303974666636043</v>
@@ -15994,7 +15946,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.793981059961071</v>
+        <v>1.76088279438696</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.34724646260244</v>
@@ -16083,7 +16035,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.803194095493184</v>
+        <v>1.765545690563915</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.370832010761151</v>
@@ -16172,7 +16124,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.80737870625516</v>
+        <v>1.770009803686746</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.446999596251738</v>
@@ -16261,7 +16213,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.816019140498365</v>
+        <v>1.777594920776726</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.551535437209707</v>
@@ -16350,7 +16302,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.808423193964765</v>
+        <v>1.768541286753976</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.641761708139158</v>
@@ -16439,7 +16391,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.804595729291568</v>
+        <v>1.77056567715056</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.379442902207201</v>
@@ -16528,7 +16480,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.809118091259627</v>
+        <v>1.773396662427493</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.200297090939206</v>
@@ -16617,7 +16569,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.81115917184901</v>
+        <v>1.776074030048301</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.635366529459359</v>
@@ -16706,7 +16658,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.809786175548766</v>
+        <v>1.776852723655514</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.341720989598207</v>
@@ -16795,7 +16747,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.807969935475639</v>
+        <v>1.773902709996733</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.406223001849197</v>
@@ -16884,7 +16836,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.817799394042534</v>
+        <v>1.782106741299257</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.640214989928116</v>
@@ -16973,7 +16925,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.824172615220044</v>
+        <v>1.792510811788565</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.795339315630923</v>
@@ -17062,7 +17014,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.814795228837168</v>
+        <v>1.785280737816363</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.126267278450279</v>
@@ -17151,7 +17103,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.812180704962706</v>
+        <v>1.777797914900166</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.706862700515015</v>
@@ -17437,7 +17389,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800601195855797</v>
+        <v>1.780844586678068</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.32586945769025</v>
@@ -17526,7 +17478,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.804491824916102</v>
+        <v>1.778870468582285</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.613273088026843</v>
@@ -17615,7 +17567,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.809328539047637</v>
+        <v>1.782978915174384</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.890431234407512</v>
@@ -17704,7 +17656,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.801631884244211</v>
+        <v>1.77125637777154</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.398662463303812</v>
@@ -17793,7 +17745,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.803902830661767</v>
+        <v>1.76936968328644</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.84864219657642</v>
@@ -17882,7 +17834,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.80643560491784</v>
+        <v>1.767981471542472</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.76892071841837</v>
@@ -17971,7 +17923,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.798792136626009</v>
+        <v>1.760188838798111</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.140718443581442</v>
@@ -18060,7 +18012,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.800720193367689</v>
+        <v>1.769168951784321</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.802499867629894</v>
@@ -18149,7 +18101,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.795157551716129</v>
+        <v>1.762979426494729</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.849031317969365</v>
@@ -18238,7 +18190,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.788826653701947</v>
+        <v>1.755122700862072</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.054955335798175</v>
@@ -18327,7 +18279,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.780618725018769</v>
+        <v>1.749820247378901</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.570806989172896</v>
@@ -18416,7 +18368,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.781410185735766</v>
+        <v>1.747039282299491</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.443317338791428</v>
@@ -18505,7 +18457,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.778033783194822</v>
+        <v>1.740222696311835</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.804209229063576</v>
@@ -18594,7 +18546,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.77497830875479</v>
+        <v>1.738097523598833</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.818347205523447</v>
@@ -18683,7 +18635,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.767426268472165</v>
+        <v>1.735844447554869</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.159196952470967</v>
@@ -18772,7 +18724,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.767844547426781</v>
+        <v>1.732530011739429</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.657500882256963</v>
@@ -18861,7 +18813,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.763063396525428</v>
+        <v>1.72918438667909</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.235562616936785</v>
@@ -18950,7 +18902,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.752102007499617</v>
+        <v>1.718621139916683</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.670084612032077</v>
@@ -19039,7 +18991,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.746226078892774</v>
+        <v>1.711403870491741</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.518257823415194</v>
@@ -19128,7 +19080,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.744643678950493</v>
+        <v>1.710594591489296</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.242674180670889</v>
@@ -19217,7 +19169,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.731097036297006</v>
+        <v>1.702959824089848</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.612634056685142</v>
@@ -19306,7 +19258,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.716918907664886</v>
+        <v>1.691973518044873</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.591877063885648</v>
@@ -19395,7 +19347,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.704475088683999</v>
+        <v>1.676753815956082</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.335904416019058</v>
@@ -19484,7 +19436,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.705727156671209</v>
+        <v>1.678700068286664</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.63586116673067</v>
@@ -19573,7 +19525,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.693864877647525</v>
+        <v>1.665954961128197</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.524932367325125</v>
@@ -19662,7 +19614,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.689164783718692</v>
+        <v>1.659509542339251</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.075972364026262</v>
@@ -19751,7 +19703,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.677977411878835</v>
+        <v>1.650543338078261</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.347857757451245</v>
@@ -19840,7 +19792,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.665842896269904</v>
+        <v>1.64132637022777</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.441638958948476</v>
@@ -19929,7 +19881,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.675610592472741</v>
+        <v>1.651040338879176</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.167736062276595</v>
@@ -20018,7 +19970,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.694707016690353</v>
+        <v>1.66829261258714</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.653816016648578</v>
@@ -20107,7 +20059,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.693915039070307</v>
+        <v>1.661398196978257</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.516834700087625</v>
@@ -20196,7 +20148,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.699055349797461</v>
+        <v>1.667485589010034</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.743989086881773</v>
@@ -20285,7 +20237,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.685110768073105</v>
+        <v>1.653862852332112</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.342510236680749</v>
@@ -20374,7 +20326,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.681240321079078</v>
+        <v>1.642270533044446</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.215057059426088</v>
@@ -20463,7 +20415,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.694715620454812</v>
+        <v>1.660787820159994</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.247227808247806</v>
@@ -20552,7 +20504,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.713206155411755</v>
+        <v>1.684397692145201</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.213392941359647</v>
@@ -20641,7 +20593,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.739836360649955</v>
+        <v>1.709492024623365</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.987415066493715</v>
@@ -20730,7 +20682,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.742402437339856</v>
+        <v>1.709957190967936</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.356373811711355</v>
@@ -20819,7 +20771,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.751782300066654</v>
+        <v>1.716087522592864</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.452552920397611</v>
@@ -20908,7 +20860,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.765667409148917</v>
+        <v>1.725196944849527</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.253629885587998</v>
@@ -20997,7 +20949,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.764239330086311</v>
+        <v>1.726840830854506</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.543981062144951</v>
@@ -21086,7 +21038,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.761693119538677</v>
+        <v>1.727980248363608</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.052018492759912</v>
@@ -21175,7 +21127,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.770340394968949</v>
+        <v>1.735834837593361</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.284092077007747</v>
@@ -21264,7 +21216,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.773427751409944</v>
+        <v>1.738450297218287</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.261988613818777</v>
@@ -21353,7 +21305,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.774429453051833</v>
+        <v>1.741174612164075</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.10993947862398</v>
@@ -21442,7 +21394,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.772021739889343</v>
+        <v>1.737944783065604</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.488562726014342</v>
@@ -21531,7 +21483,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.771151754705058</v>
+        <v>1.736675205108344</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.265395396848621</v>
@@ -21620,7 +21572,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.790581105229931</v>
+        <v>1.757985464277956</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.451064378267697</v>
@@ -21709,7 +21661,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.795689666504438</v>
+        <v>1.768753912416461</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.6802005593002</v>
@@ -21798,7 +21750,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.797046261163382</v>
+        <v>1.767078118614532</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.326751432468929</v>
@@ -21887,7 +21839,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.78641008275281</v>
+        <v>1.747953854096272</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.824886261016958</v>
@@ -22173,7 +22125,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.446659353563548</v>
+        <v>1.442002402438757</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.475446429316813</v>
@@ -22262,7 +22214,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.449758963066432</v>
+        <v>1.445873362630534</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.446575598355999</v>
@@ -22351,7 +22303,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.447964110289868</v>
+        <v>1.443365162767977</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.306214817481403</v>
@@ -22440,7 +22392,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.442340661767718</v>
+        <v>1.435640921285285</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.385899200798353</v>
@@ -22529,7 +22481,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.449424573074692</v>
+        <v>1.44328220218561</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.532705964027614</v>
@@ -22618,7 +22570,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.454907560097926</v>
+        <v>1.448403249333199</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.32298832274424</v>
@@ -22707,7 +22659,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470929245091042</v>
+        <v>1.461001976616246</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.240701759615486</v>
@@ -22796,7 +22748,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.475269845489766</v>
+        <v>1.466757775279926</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.238819157201773</v>
@@ -22885,7 +22837,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.482105076921245</v>
+        <v>1.466488248229556</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.540906022762985</v>
@@ -22974,7 +22926,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.481674682656188</v>
+        <v>1.463460381992019</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.512579500239243</v>
@@ -23063,7 +23015,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.506579443141603</v>
+        <v>1.49054589188245</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.533778820516114</v>
@@ -23152,7 +23104,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.509372621975037</v>
+        <v>1.490116583572757</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.373982377486895</v>
@@ -23241,7 +23193,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.509859153469617</v>
+        <v>1.492501587849514</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.491442336858602</v>
@@ -23330,7 +23282,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.54125091563233</v>
+        <v>1.518829885884728</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.480834237401384</v>
@@ -23419,7 +23371,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.538099530263647</v>
+        <v>1.518405581880719</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.576622642265037</v>
@@ -23508,7 +23460,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58590555901997</v>
+        <v>1.559460231214984</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.756026813326873</v>
@@ -23597,7 +23549,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.573541904366614</v>
+        <v>1.550951506588187</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.80199281064083</v>
@@ -23686,7 +23638,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.58428662742207</v>
+        <v>1.558000496941626</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.622502578637689</v>
@@ -23775,7 +23727,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.609766131664419</v>
+        <v>1.582105995374218</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.874361235042352</v>
@@ -23864,7 +23816,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.584029394714934</v>
+        <v>1.560657121430544</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.175849197063006</v>
@@ -23953,7 +23905,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579909600921409</v>
+        <v>1.553642141314052</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.921750100957321</v>
@@ -24042,7 +23994,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.566816474261964</v>
+        <v>1.537797691770079</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.615644142627075</v>
@@ -24131,7 +24083,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.553893817435166</v>
+        <v>1.523515593751698</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.68732377508477</v>
@@ -24220,7 +24172,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.54570077325444</v>
+        <v>1.52446695494193</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.662866059636055</v>
@@ -24309,7 +24261,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.533615843344137</v>
+        <v>1.514867233107067</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.742843342500427</v>
@@ -24398,7 +24350,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.526623930717502</v>
+        <v>1.508611640850327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.759310704211119</v>
@@ -24487,7 +24439,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.520555429594682</v>
+        <v>1.501660587216297</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.672249984825206</v>
@@ -24576,7 +24528,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.514798641035254</v>
+        <v>1.496626524172502</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.735987229997499</v>
@@ -24665,7 +24617,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.513827615900806</v>
+        <v>1.49004500859298</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.665559747142265</v>
@@ -24754,7 +24706,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.504977416818512</v>
+        <v>1.481616901134759</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.735052922334389</v>
@@ -24843,7 +24795,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.505149126180642</v>
+        <v>1.479677912143529</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.569371210251196</v>
@@ -24932,7 +24884,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.50159465481472</v>
+        <v>1.47759890413915</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.696092083102219</v>
@@ -25021,7 +24973,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.505016919176652</v>
+        <v>1.485320616138452</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.584269936137758</v>
@@ -25110,7 +25062,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.490464389745065</v>
+        <v>1.469531730944392</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.720890747852371</v>
@@ -25199,7 +25151,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.518125584535082</v>
+        <v>1.49519133097696</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.745046219959346</v>
@@ -25288,7 +25240,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.507728384357267</v>
+        <v>1.490912219201006</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.74436678999274</v>
@@ -25377,7 +25329,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.526696879911612</v>
+        <v>1.511850653397224</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.720206318665768</v>
@@ -25466,7 +25418,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.539430728491774</v>
+        <v>1.527551227366324</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.598800550297121</v>
@@ -25555,7 +25507,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.545417885484887</v>
+        <v>1.534843685534892</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.646933567047149</v>
@@ -25644,7 +25596,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.559585260940543</v>
+        <v>1.546346495310732</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.598015432905254</v>
@@ -25733,7 +25685,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.559595881629373</v>
+        <v>1.548573034683158</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.794187631109473</v>
@@ -25822,7 +25774,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.569161292144121</v>
+        <v>1.557644783885762</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.274611379312156</v>
@@ -25911,7 +25863,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.549548791780851</v>
+        <v>1.538900655980339</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.567526938800341</v>
@@ -26000,7 +25952,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.544987293304556</v>
+        <v>1.540988324814471</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.567471825392526</v>
@@ -26089,7 +26041,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.539438899675118</v>
+        <v>1.535646514680227</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.57943172070676</v>
@@ -26178,7 +26130,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.540017804481872</v>
+        <v>1.537189693483006</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.609572926149559</v>
@@ -26267,7 +26219,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.528029611883963</v>
+        <v>1.52734998641657</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.700947695147955</v>
@@ -26356,7 +26308,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.539174167179426</v>
+        <v>1.5389657329041</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.716745037380243</v>
@@ -26445,7 +26397,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.56037756368239</v>
+        <v>1.562018102117918</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.609042234006697</v>
@@ -26534,7 +26486,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.557976527532288</v>
+        <v>1.558315653598346</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.63313238477327</v>
@@ -26623,7 +26575,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.570378185000077</v>
+        <v>1.565232925494398</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.672591698833434</v>
@@ -26909,7 +26861,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.397610079057467</v>
+        <v>1.412926003675198</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.664740829886508</v>
@@ -26998,7 +26950,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.425773710541126</v>
+        <v>1.446142303584357</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.209737986304028</v>
@@ -27087,7 +27039,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.445866031341424</v>
+        <v>1.470989069806353</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.770803649928936</v>
@@ -27176,7 +27128,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.443604251987145</v>
+        <v>1.4644613598152</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.492464638677629</v>
@@ -27265,7 +27217,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.433887495089126</v>
+        <v>1.455051081403696</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.412620880861464</v>
@@ -27354,7 +27306,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.460445672830352</v>
+        <v>1.479261931968755</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.485927444398234</v>
@@ -27443,7 +27395,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.481935333867128</v>
+        <v>1.497501552133534</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.37967977307937</v>
@@ -27532,7 +27484,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.485628963791191</v>
+        <v>1.505216604793529</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.551412520786681</v>
@@ -27621,7 +27573,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.478812983974777</v>
+        <v>1.497672572802303</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.49400542327758</v>
@@ -27710,7 +27662,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465838486247492</v>
+        <v>1.482198720125981</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.580983144437972</v>
@@ -27799,7 +27751,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.416334639988071</v>
+        <v>1.430642037528987</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.540357913047149</v>
@@ -27888,7 +27840,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.411487778942445</v>
+        <v>1.426232253236329</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.460452903873255</v>
@@ -27977,7 +27929,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.426246102436052</v>
+        <v>1.440866483107441</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.814862428651136</v>
@@ -28066,7 +28018,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.438398409645588</v>
+        <v>1.449574840246218</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.670969065732796</v>
@@ -28155,7 +28107,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.448676660475231</v>
+        <v>1.463631625724914</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.49771501070721</v>
@@ -28244,7 +28196,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.455795119289139</v>
+        <v>1.46801181695627</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.326691322552836</v>
@@ -28333,7 +28285,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.44542948046011</v>
+        <v>1.454253877146267</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.503333371247593</v>
@@ -28422,7 +28374,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.408801009203989</v>
+        <v>1.421799157253686</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.63070093724692</v>
@@ -28511,7 +28463,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.43067643943016</v>
+        <v>1.442284712044382</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.515404656945887</v>
@@ -28600,7 +28552,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.414550846847962</v>
+        <v>1.42941209795349</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.423036520886868</v>
@@ -28689,7 +28641,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.400941230544166</v>
+        <v>1.416668876300224</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.532776525177945</v>
@@ -28778,7 +28730,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.369962480875517</v>
+        <v>1.386877132303014</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.381537135012745</v>
@@ -28867,7 +28819,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.33267360719164</v>
+        <v>1.341627710258666</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.442074569893266</v>
@@ -28956,7 +28908,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.336441551805598</v>
+        <v>1.348189615119785</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.493755981042402</v>
@@ -29045,7 +28997,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.341162442468127</v>
+        <v>1.351663199282051</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.351407185927701</v>
@@ -29134,7 +29086,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.372585682410172</v>
+        <v>1.386950169790553</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.321483602028086</v>
@@ -29223,7 +29175,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.363198096504941</v>
+        <v>1.377373658093557</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.470633139233493</v>
@@ -29312,7 +29264,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.366562032125363</v>
+        <v>1.382159602693066</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.50278206896472</v>
@@ -29401,7 +29353,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.346505307742504</v>
+        <v>1.358967784017418</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.316287041359658</v>
@@ -29490,7 +29442,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.371289793105275</v>
+        <v>1.384404811292995</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.499563146239814</v>
@@ -29579,7 +29531,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.369790543691265</v>
+        <v>1.380663465544274</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.398597316456187</v>
@@ -29668,7 +29620,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.375425610795229</v>
+        <v>1.385438215952155</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.262627922899406</v>
@@ -29757,7 +29709,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.35785396550818</v>
+        <v>1.366967944554859</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.3153800641799</v>
@@ -29846,7 +29798,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.34130848970562</v>
+        <v>1.34621246071648</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.2066901916334</v>
@@ -29935,7 +29887,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.394761223123088</v>
+        <v>1.40673456205875</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.264872403476139</v>
@@ -30024,7 +29976,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.424656892436458</v>
+        <v>1.444700818275485</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.26027385654004</v>
@@ -30113,7 +30065,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.461650484924742</v>
+        <v>1.483060868048285</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.28076959638171</v>
@@ -30202,7 +30154,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.50995510920983</v>
+        <v>1.535441824517727</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.382214062071498</v>
@@ -30291,7 +30243,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.498423449126788</v>
+        <v>1.525125227100565</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.595780724419348</v>
@@ -30380,7 +30332,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.494494394755619</v>
+        <v>1.518347740195564</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.544298521901116</v>
@@ -30469,7 +30421,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.495069704406118</v>
+        <v>1.519072142712733</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.669305315925484</v>
@@ -30558,7 +30510,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.489904283545601</v>
+        <v>1.505806533471226</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.642270313257521</v>
@@ -30647,7 +30599,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.46803905362438</v>
+        <v>1.490515239869763</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.534371749425953</v>
@@ -30736,7 +30688,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.477541314211191</v>
+        <v>1.503223243273109</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.604556187231606</v>
@@ -30825,7 +30777,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.477605778671323</v>
+        <v>1.50206993043486</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.593708862410347</v>
@@ -30914,7 +30866,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.47555781934538</v>
+        <v>1.498965655993825</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.51599430395484</v>
@@ -31003,7 +30955,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.480244818911745</v>
+        <v>1.502045920911276</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.610403536571707</v>
@@ -31092,7 +31044,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.515755281782937</v>
+        <v>1.536422819763531</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.551870512020545</v>
@@ -31181,7 +31133,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.537549766849937</v>
+        <v>1.563447021628986</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.116278094399553</v>
@@ -31270,7 +31222,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.509076606603517</v>
+        <v>1.532538098217192</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.967026268708073</v>
@@ -31359,7 +31311,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.473099102352363</v>
+        <v>1.490212242822075</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.593724109033355</v>
